--- a/Datos_prueba_diagnostica.xlsx
+++ b/Datos_prueba_diagnostica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAUSAC\Documents\3058816550301_Prueba_Diagnostica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C52D2B-78F6-40C5-8E8F-11C3017BAB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614252E1-71BC-49EA-A8A9-F90CE3449FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{99D59D29-EB2A-4491-8CC3-47736AA4BD80}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{99D59D29-EB2A-4491-8CC3-47736AA4BD80}"/>
   </bookViews>
   <sheets>
     <sheet name="Preparación_datos_EJ_1" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3B9E9A-C220-49D0-80E7-A9A9E9E00AA7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDC8E2B-384A-4070-B128-C44CF6481319}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
